--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E115F-3D0B-4541-AB2C-439EF2FEA2BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A67D9-03BA-4B3E-B3C7-DCF3F9DB8133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,11 +510,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,18 +545,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,6 +1186,102 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2582334" y="5757333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5B7853-F150-46B8-8C12-3544C052B641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="5947833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05684F2F-5401-413B-A6F2-1F0640E0B39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="6138333"/>
           <a:ext cx="116417" cy="116417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3255,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3266,177 +3362,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11" t="s">
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11" t="s">
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11" t="s">
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4480,10 +4576,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4492,46 +4588,46 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -4659,23 +4755,25 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4683,7 +4781,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4691,7 +4789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4699,7 +4797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -4709,6 +4807,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AL1:BF1"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
@@ -4722,24 +4838,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AL1:BF1"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4751,7 +4849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FE945-70F7-4E8E-AF80-F13293216A78}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -5029,224 +5127,208 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="AJ9" s="17" t="s">
+      <c r="J9" s="22"/>
+      <c r="AJ9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AM9" s="17" t="s">
+      <c r="AK9" s="22"/>
+      <c r="AM9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="18"/>
-      <c r="AP9" s="17" t="s">
+      <c r="AN9" s="22"/>
+      <c r="AP9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AS9" s="17" t="s">
+      <c r="AQ9" s="22"/>
+      <c r="AS9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AT9" s="18"/>
-      <c r="AV9" s="17" t="s">
+      <c r="AT9" s="22"/>
+      <c r="AV9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AW9" s="18"/>
-      <c r="AY9" s="17" t="s">
+      <c r="AW9" s="22"/>
+      <c r="AY9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AZ9" s="18"/>
-      <c r="BB9" s="17" t="s">
+      <c r="AZ9" s="22"/>
+      <c r="BB9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="18"/>
+      <c r="BC9" s="22"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="20"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="20"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="20"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="20"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="20"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="20"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="24"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="24"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="24"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="24"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="24"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="24"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="AD13" s="17" t="s">
+      <c r="J13" s="22"/>
+      <c r="AD13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AG13" s="17" t="s">
+      <c r="AE13" s="22"/>
+      <c r="AG13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="18"/>
+      <c r="AH13" s="22"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="20"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="20"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="24"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="24"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="X17" s="17" t="s">
+      <c r="J17" s="22"/>
+      <c r="X17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="18"/>
-      <c r="AA17" s="17" t="s">
+      <c r="Y17" s="22"/>
+      <c r="AA17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="18"/>
-      <c r="AD17" s="17" t="s">
+      <c r="AB17" s="22"/>
+      <c r="AD17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="18"/>
+      <c r="AE17" s="22"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="20"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="20"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="24"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="24"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="24"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="F20" s="25" t="s">
+      <c r="C20" s="18"/>
+      <c r="F20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="R22" s="21" t="s">
+      <c r="J22" s="22"/>
+      <c r="R22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="U22" s="25" t="s">
+      <c r="S22" s="26"/>
+      <c r="U22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="26"/>
-      <c r="X22" s="21" t="s">
+      <c r="V22" s="18"/>
+      <c r="X22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="22"/>
+      <c r="Y22" s="26"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="24"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="20"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="28"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="L26" s="25" t="s">
+      <c r="J26" s="22"/>
+      <c r="L26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="O26" s="25" t="s">
+      <c r="M26" s="18"/>
+      <c r="O26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="R26" s="25" t="s">
+      <c r="P26" s="18"/>
+      <c r="R26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="26"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="L30" s="25" t="s">
+      <c r="J30" s="22"/>
+      <c r="L30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="O30" s="25" t="s">
+      <c r="M30" s="18"/>
+      <c r="O30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="26"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="U22:V23"/>
     <mergeCell ref="BB9:BC10"/>
     <mergeCell ref="X17:Y18"/>
     <mergeCell ref="AA17:AB18"/>
@@ -5259,6 +5341,22 @@
     <mergeCell ref="AS9:AT10"/>
     <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AY9:AZ10"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A67D9-03BA-4B3E-B3C7-DCF3F9DB8133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF7A3F8-A4BE-40A8-8ECC-45BD978CBC4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
@@ -492,13 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,17 +504,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -545,6 +533,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,6 +1282,102 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2582334" y="6138333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9B87FE-6851-4E95-8756-743EC4104C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="6328833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472FD9D8-E554-42B4-AA2E-95C2933FB5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="6519333"/>
           <a:ext cx="116417" cy="116417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3351,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,177 +3458,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12" t="s">
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="s">
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12" t="s">
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12" t="s">
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12" t="s">
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12" t="s">
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12" t="s">
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12" t="s">
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12" t="s">
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4576,10 +4672,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4588,46 +4684,46 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -4780,6 +4876,7 @@
       <c r="B35">
         <v>74</v>
       </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4788,6 +4885,7 @@
       <c r="B36">
         <v>78</v>
       </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4807,24 +4905,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AL1:BF1"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="E1:J1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
@@ -4838,6 +4918,24 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AL1:BF1"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5127,208 +5225,224 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="AJ9" s="21" t="s">
+      <c r="J9" s="18"/>
+      <c r="AJ9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="22"/>
-      <c r="AM9" s="21" t="s">
+      <c r="AK9" s="18"/>
+      <c r="AM9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="22"/>
-      <c r="AP9" s="21" t="s">
+      <c r="AN9" s="18"/>
+      <c r="AP9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AS9" s="21" t="s">
+      <c r="AQ9" s="18"/>
+      <c r="AS9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AT9" s="22"/>
-      <c r="AV9" s="21" t="s">
+      <c r="AT9" s="18"/>
+      <c r="AV9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AW9" s="22"/>
-      <c r="AY9" s="21" t="s">
+      <c r="AW9" s="18"/>
+      <c r="AY9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AZ9" s="22"/>
-      <c r="BB9" s="21" t="s">
+      <c r="AZ9" s="18"/>
+      <c r="BB9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="22"/>
+      <c r="BC9" s="18"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="24"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="24"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="24"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="24"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="24"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="24"/>
-      <c r="BB10" s="23"/>
-      <c r="BC10" s="24"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="20"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="20"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="20"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="20"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="20"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="20"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="20"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="AD13" s="21" t="s">
+      <c r="J13" s="18"/>
+      <c r="AD13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="22"/>
-      <c r="AG13" s="21" t="s">
+      <c r="AE13" s="18"/>
+      <c r="AG13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="22"/>
+      <c r="AH13" s="18"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="24"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="20"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="X17" s="21" t="s">
+      <c r="J17" s="18"/>
+      <c r="X17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="22"/>
-      <c r="AA17" s="21" t="s">
+      <c r="Y17" s="18"/>
+      <c r="AA17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="22"/>
-      <c r="AD17" s="21" t="s">
+      <c r="AB17" s="18"/>
+      <c r="AD17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="22"/>
+      <c r="AE17" s="18"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="24"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="24"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="24"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="20"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="20"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="20"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="C20" s="26"/>
+      <c r="F20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="R22" s="25" t="s">
+      <c r="J22" s="18"/>
+      <c r="R22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="U22" s="17" t="s">
+      <c r="S22" s="22"/>
+      <c r="U22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="X22" s="25" t="s">
+      <c r="V22" s="26"/>
+      <c r="X22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="26"/>
+      <c r="Y22" s="22"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="20"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="28"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="24"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="28"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="24"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="L26" s="17" t="s">
+      <c r="J26" s="18"/>
+      <c r="L26" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="O26" s="17" t="s">
+      <c r="M26" s="26"/>
+      <c r="O26" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="R26" s="17" t="s">
+      <c r="P26" s="26"/>
+      <c r="R26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="18"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="28"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="L30" s="17" t="s">
+      <c r="J30" s="18"/>
+      <c r="L30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="O30" s="17" t="s">
+      <c r="M30" s="26"/>
+      <c r="O30" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="18"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="U22:V23"/>
     <mergeCell ref="BB9:BC10"/>
     <mergeCell ref="X17:Y18"/>
     <mergeCell ref="AA17:AB18"/>
@@ -5341,22 +5455,6 @@
     <mergeCell ref="AS9:AT10"/>
     <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AY9:AZ10"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF7A3F8-A4BE-40A8-8ECC-45BD978CBC4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97918AE-4C13-4399-8F62-8477D880FA88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
@@ -346,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +356,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,14 +498,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,7 +521,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -504,11 +539,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,18 +575,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1378,6 +1427,102 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2582334" y="6519333"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CC52F6-A2AF-4905-A267-40B7D9499223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="6709833"/>
+          <a:ext cx="116417" cy="116417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201084</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="116417" cy="116417"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B7998E-7CF7-4D4F-84E1-0C1F7FED47B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2582334" y="6709833"/>
           <a:ext cx="116417" cy="116417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3447,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,177 +3603,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11" t="s">
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11" t="s">
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11" t="s">
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11" t="s">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11" t="s">
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11" t="s">
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3638,166 +3783,166 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AS3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AT3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AW3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AY3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BA3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BD3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BE3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BF3" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3814,100 +3959,100 @@
       <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="35">
         <v>100</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="35">
         <v>200</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="35">
         <v>3</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="35">
         <v>200</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="35">
         <v>210</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="35">
         <v>101</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR4" s="35">
         <v>210</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS4" s="35">
         <v>220</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT4" s="35">
         <v>201</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="35">
         <v>220</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4" s="35">
         <v>230</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW4" s="35">
         <v>211</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AX4" s="35">
         <v>230</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AY4" s="35">
         <v>240</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ4" s="35">
         <v>221</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BA4" s="35">
         <v>240</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="BB4" s="35">
         <v>250</v>
       </c>
-      <c r="BC4" s="3">
+      <c r="BC4" s="35">
         <v>231</v>
       </c>
-      <c r="BD4" s="3">
+      <c r="BD4" s="35">
         <v>250</v>
       </c>
-      <c r="BE4" s="3">
+      <c r="BE4" s="35">
         <v>260</v>
       </c>
-      <c r="BF4" s="3">
+      <c r="BF4" s="35">
         <v>241</v>
       </c>
     </row>
@@ -3924,112 +4069,112 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33">
         <v>110</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="33">
         <v>118</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="33">
         <v>3</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="33">
         <v>118</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="33">
         <v>100</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="33">
         <v>111</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="35">
         <v>100</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="35">
         <v>200</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="35">
         <v>119</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="35">
         <v>200</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="35">
         <v>210</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="35">
         <v>101</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="35">
         <v>210</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="35">
         <v>220</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5" s="35">
         <v>201</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="35">
         <v>220</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV5" s="35">
         <v>230</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW5" s="35">
         <v>211</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AX5" s="35">
         <v>230</v>
       </c>
-      <c r="AY5" s="3">
+      <c r="AY5" s="35">
         <v>240</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ5" s="35">
         <v>221</v>
       </c>
-      <c r="BA5" s="3">
+      <c r="BA5" s="35">
         <v>240</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="BB5" s="35">
         <v>250</v>
       </c>
-      <c r="BC5" s="3">
+      <c r="BC5" s="35">
         <v>231</v>
       </c>
-      <c r="BD5" s="3">
+      <c r="BD5" s="35">
         <v>250</v>
       </c>
-      <c r="BE5" s="3">
+      <c r="BE5" s="35">
         <v>260</v>
       </c>
-      <c r="BF5" s="3">
+      <c r="BF5" s="35">
         <v>241</v>
       </c>
     </row>
@@ -4046,130 +4191,130 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29">
         <v>120</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="29">
         <v>128</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="29">
         <v>3</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="29">
         <v>128</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="29">
         <v>114</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="29">
         <v>121</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="33">
         <v>114</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="33">
         <v>110</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="33">
         <v>129</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="33">
         <v>110</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="33">
         <v>118</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="33">
         <v>115</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="33">
         <v>118</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="33">
         <v>100</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="33">
         <v>111</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="35">
         <v>100</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="35">
         <v>200</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="35">
         <v>119</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="35">
         <v>200</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="35">
         <v>210</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="35">
         <v>101</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="35">
         <v>210</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS6" s="35">
         <v>220</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AT6" s="35">
         <v>201</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="35">
         <v>220</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AV6" s="35">
         <v>230</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="AW6" s="35">
         <v>211</v>
       </c>
-      <c r="AX6" s="3">
+      <c r="AX6" s="35">
         <v>230</v>
       </c>
-      <c r="AY6" s="3">
+      <c r="AY6" s="35">
         <v>240</v>
       </c>
-      <c r="AZ6" s="3">
+      <c r="AZ6" s="35">
         <v>221</v>
       </c>
-      <c r="BA6" s="3">
+      <c r="BA6" s="35">
         <v>240</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="BB6" s="35">
         <v>250</v>
       </c>
-      <c r="BC6" s="3">
+      <c r="BC6" s="35">
         <v>231</v>
       </c>
-      <c r="BD6" s="3">
+      <c r="BD6" s="35">
         <v>250</v>
       </c>
-      <c r="BE6" s="3">
+      <c r="BE6" s="35">
         <v>260</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="BF6" s="35">
         <v>241</v>
       </c>
     </row>
@@ -4186,148 +4331,148 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31">
         <v>130</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="31">
         <v>138</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="31">
         <v>3</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="31">
         <v>138</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="31">
         <v>124</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="31">
         <v>131</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="29">
         <v>124</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="29">
         <v>120</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="29">
         <v>139</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="29">
         <v>120</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="29">
         <v>128</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="29">
         <v>125</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="29">
         <v>128</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="29">
         <v>114</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="29">
         <v>121</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="33">
         <v>114</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="33">
         <v>110</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="33">
         <v>129</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="33">
         <v>110</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="33">
         <v>118</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="33">
         <v>115</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="33">
         <v>118</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="33">
         <v>100</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="33">
         <v>111</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="35">
         <v>100</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="35">
         <v>200</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="35">
         <v>119</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="35">
         <v>200</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="35">
         <v>210</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="35">
         <v>101</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="35">
         <v>210</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS7" s="35">
         <v>220</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7" s="35">
         <v>201</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU7" s="35">
         <v>220</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="35">
         <v>230</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW7" s="35">
         <v>211</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AX7" s="35">
         <v>230</v>
       </c>
-      <c r="AY7" s="3">
+      <c r="AY7" s="35">
         <v>240</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ7" s="35">
         <v>221</v>
       </c>
-      <c r="BA7" s="3">
+      <c r="BA7" s="35">
         <v>240</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="BB7" s="35">
         <v>250</v>
       </c>
-      <c r="BC7" s="3">
+      <c r="BC7" s="35">
         <v>231</v>
       </c>
-      <c r="BD7" s="3">
+      <c r="BD7" s="35">
         <v>250</v>
       </c>
-      <c r="BE7" s="3">
+      <c r="BE7" s="35">
         <v>260</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="BF7" s="35">
         <v>241</v>
       </c>
     </row>
@@ -4344,166 +4489,166 @@
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="37">
         <v>140</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="37">
         <v>144</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="37">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="37">
         <v>144</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="37">
         <v>134</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="37">
         <v>141</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="31">
         <v>134</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="31">
         <v>130</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="31">
         <v>145</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="31">
         <v>130</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="31">
         <v>138</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="31">
         <v>135</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="31">
         <v>138</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="31">
         <v>124</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="31">
         <v>131</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="29">
         <v>124</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="29">
         <v>120</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="29">
         <v>139</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="29">
         <v>120</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="29">
         <v>128</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="29">
         <v>125</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="29">
         <v>128</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="29">
         <v>114</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="29">
         <v>121</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="33">
         <v>114</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="33">
         <v>110</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="33">
         <v>129</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="33">
         <v>110</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="33">
         <v>118</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH8" s="33">
         <v>115</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="33">
         <v>118</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="33">
         <v>100</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="33">
         <v>111</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="35">
         <v>100</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="35">
         <v>200</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="35">
         <v>119</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="35">
         <v>200</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="35">
         <v>210</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="35">
         <v>101</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AR8" s="35">
         <v>210</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AS8" s="35">
         <v>220</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AT8" s="35">
         <v>201</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AU8" s="35">
         <v>220</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="35">
         <v>230</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AW8" s="35">
         <v>211</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AX8" s="35">
         <v>230</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AY8" s="35">
         <v>240</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="AZ8" s="35">
         <v>221</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BA8" s="35">
         <v>240</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BB8" s="35">
         <v>250</v>
       </c>
-      <c r="BC8" s="3">
+      <c r="BC8" s="35">
         <v>231</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BD8" s="35">
         <v>250</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BE8" s="35">
         <v>260</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BF8" s="35">
         <v>241</v>
       </c>
     </row>
@@ -4520,148 +4665,148 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="37">
         <v>150</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="37">
         <v>154</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="37">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="37">
         <v>154</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="37">
         <v>124</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="37">
         <v>151</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="29">
         <v>124</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="29">
         <v>120</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="29">
         <v>155</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="29">
         <v>120</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="29">
         <v>128</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="29">
         <v>125</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="29">
         <v>128</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="29">
         <v>114</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="29">
         <v>121</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="33">
         <v>114</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="33">
         <v>110</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="33">
         <v>129</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="33">
         <v>110</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="33">
         <v>118</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH9" s="33">
         <v>115</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="33">
         <v>118</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="33">
         <v>100</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK9" s="33">
         <v>111</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="35">
         <v>100</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM9" s="35">
         <v>200</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="35">
         <v>119</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="35">
         <v>200</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="35">
         <v>210</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="35">
         <v>101</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR9" s="35">
         <v>210</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS9" s="35">
         <v>220</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9" s="35">
         <v>201</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU9" s="35">
         <v>220</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV9" s="35">
         <v>230</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AW9" s="35">
         <v>211</v>
       </c>
-      <c r="AX9" s="3">
+      <c r="AX9" s="35">
         <v>230</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="AY9" s="35">
         <v>240</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="AZ9" s="35">
         <v>221</v>
       </c>
-      <c r="BA9" s="3">
+      <c r="BA9" s="35">
         <v>240</v>
       </c>
-      <c r="BB9" s="3">
+      <c r="BB9" s="35">
         <v>250</v>
       </c>
-      <c r="BC9" s="3">
+      <c r="BC9" s="35">
         <v>231</v>
       </c>
-      <c r="BD9" s="3">
+      <c r="BD9" s="35">
         <v>250</v>
       </c>
-      <c r="BE9" s="3">
+      <c r="BE9" s="35">
         <v>260</v>
       </c>
-      <c r="BF9" s="3">
+      <c r="BF9" s="35">
         <v>241</v>
       </c>
     </row>
@@ -4672,10 +4817,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4684,46 +4829,46 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -4741,7 +4886,7 @@
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4750,7 +4895,7 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4759,7 +4904,7 @@
       <c r="B22">
         <v>22</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4768,7 +4913,7 @@
       <c r="B23">
         <v>26</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -4777,7 +4922,7 @@
       <c r="B24">
         <v>30</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4786,7 +4931,7 @@
       <c r="B25">
         <v>34</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4795,7 +4940,7 @@
       <c r="B26">
         <v>38</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4804,7 +4949,7 @@
       <c r="B27">
         <v>42</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4813,7 +4958,7 @@
       <c r="B28">
         <v>46</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4822,7 +4967,7 @@
       <c r="B29">
         <v>50</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4831,7 +4976,7 @@
       <c r="B30">
         <v>54</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4840,7 +4985,7 @@
       <c r="B31">
         <v>58</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4849,7 +4994,7 @@
       <c r="B32">
         <v>62</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4858,7 +5003,7 @@
       <c r="B33">
         <v>66</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4867,7 +5012,7 @@
       <c r="B34">
         <v>70</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4876,7 +5021,7 @@
       <c r="B35">
         <v>74</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4885,7 +5030,7 @@
       <c r="B36">
         <v>78</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4894,6 +5039,7 @@
       <c r="B37">
         <v>82</v>
       </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4902,9 +5048,28 @@
       <c r="B38">
         <v>86</v>
       </c>
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AL1:BF1"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
@@ -4918,24 +5083,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AL1:BF1"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4962,16 +5109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5119,13 +5266,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5225,224 +5372,208 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="AJ9" s="17" t="s">
+      <c r="J9" s="21"/>
+      <c r="AJ9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AM9" s="17" t="s">
+      <c r="AK9" s="21"/>
+      <c r="AM9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="18"/>
-      <c r="AP9" s="17" t="s">
+      <c r="AN9" s="21"/>
+      <c r="AP9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AS9" s="17" t="s">
+      <c r="AQ9" s="21"/>
+      <c r="AS9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AT9" s="18"/>
-      <c r="AV9" s="17" t="s">
+      <c r="AT9" s="21"/>
+      <c r="AV9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AW9" s="18"/>
-      <c r="AY9" s="17" t="s">
+      <c r="AW9" s="21"/>
+      <c r="AY9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AZ9" s="18"/>
-      <c r="BB9" s="17" t="s">
+      <c r="AZ9" s="21"/>
+      <c r="BB9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="18"/>
+      <c r="BC9" s="21"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="20"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="20"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="20"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="20"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="20"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="23"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="23"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="23"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="23"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="23"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="23"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="23"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="AD13" s="17" t="s">
+      <c r="J13" s="21"/>
+      <c r="AD13" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="18"/>
-      <c r="AG13" s="17" t="s">
+      <c r="AE13" s="21"/>
+      <c r="AG13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="18"/>
+      <c r="AH13" s="21"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="20"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="23"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="X17" s="17" t="s">
+      <c r="J17" s="21"/>
+      <c r="X17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="18"/>
-      <c r="AA17" s="17" t="s">
+      <c r="Y17" s="21"/>
+      <c r="AA17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="18"/>
-      <c r="AD17" s="17" t="s">
+      <c r="AB17" s="21"/>
+      <c r="AD17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="18"/>
+      <c r="AE17" s="21"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="20"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="23"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="23"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="F20" s="25" t="s">
+      <c r="C20" s="17"/>
+      <c r="F20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="R22" s="21" t="s">
+      <c r="J22" s="21"/>
+      <c r="R22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="22"/>
-      <c r="U22" s="25" t="s">
+      <c r="S22" s="25"/>
+      <c r="U22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="26"/>
-      <c r="X22" s="21" t="s">
+      <c r="V22" s="17"/>
+      <c r="X22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="22"/>
+      <c r="Y22" s="25"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="24"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="24"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="27"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="19"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="27"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="L26" s="25" t="s">
+      <c r="J26" s="21"/>
+      <c r="L26" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="O26" s="25" t="s">
+      <c r="M26" s="17"/>
+      <c r="O26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="R26" s="25" t="s">
+      <c r="P26" s="17"/>
+      <c r="R26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="26"/>
+      <c r="S26" s="17"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="28"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="19"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="L30" s="25" t="s">
+      <c r="J30" s="21"/>
+      <c r="L30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="26"/>
-      <c r="O30" s="25" t="s">
+      <c r="M30" s="17"/>
+      <c r="O30" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="26"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="U22:V23"/>
     <mergeCell ref="BB9:BC10"/>
     <mergeCell ref="X17:Y18"/>
     <mergeCell ref="AA17:AB18"/>
@@ -5455,6 +5586,22 @@
     <mergeCell ref="AS9:AT10"/>
     <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AY9:AZ10"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97918AE-4C13-4399-8F62-8477D880FA88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5CDF7-4B87-40F7-A31D-A9A493AFA42D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
   <si>
     <t>Office Category</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>MOE_OFF</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>DCS</t>
   </si>
 </sst>
 </file>
@@ -521,13 +527,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,17 +547,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,26 +589,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3592,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
   <dimension ref="A1:BF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
@@ -3603,177 +3609,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="28" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="32" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="28" t="s">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="32" t="s">
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="34" t="s">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34" t="s">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34" t="s">
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34" t="s">
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34" t="s">
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34" t="s">
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="15"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3783,166 +3789,166 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="Y3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AB3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AH3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK3" s="33" t="s">
+      <c r="AK3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL3" s="35" t="s">
+      <c r="AL3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AM3" s="35" t="s">
+      <c r="AM3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="35" t="s">
+      <c r="AN3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AO3" s="35" t="s">
+      <c r="AO3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AP3" s="35" t="s">
+      <c r="AP3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AQ3" s="35" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="35" t="s">
+      <c r="AR3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AS3" s="35" t="s">
+      <c r="AS3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="35" t="s">
+      <c r="AT3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="35" t="s">
+      <c r="AU3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AV3" s="35" t="s">
+      <c r="AV3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="35" t="s">
+      <c r="AW3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AX3" s="35" t="s">
+      <c r="AX3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AY3" s="35" t="s">
+      <c r="AY3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AZ3" s="35" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="35" t="s">
+      <c r="BA3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BB3" s="35" t="s">
+      <c r="BB3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BC3" s="35" t="s">
+      <c r="BC3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="BD3" s="35" t="s">
+      <c r="BD3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="35" t="s">
+      <c r="BE3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="35" t="s">
+      <c r="BF3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3959,100 +3965,100 @@
       <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="35">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="13">
         <v>100</v>
       </c>
-      <c r="AM4" s="35">
+      <c r="AM4" s="13">
         <v>200</v>
       </c>
-      <c r="AN4" s="35">
+      <c r="AN4" s="13">
         <v>3</v>
       </c>
-      <c r="AO4" s="35">
+      <c r="AO4" s="13">
         <v>200</v>
       </c>
-      <c r="AP4" s="35">
+      <c r="AP4" s="13">
         <v>210</v>
       </c>
-      <c r="AQ4" s="35">
+      <c r="AQ4" s="13">
         <v>101</v>
       </c>
-      <c r="AR4" s="35">
+      <c r="AR4" s="13">
         <v>210</v>
       </c>
-      <c r="AS4" s="35">
+      <c r="AS4" s="13">
         <v>220</v>
       </c>
-      <c r="AT4" s="35">
+      <c r="AT4" s="13">
         <v>201</v>
       </c>
-      <c r="AU4" s="35">
+      <c r="AU4" s="13">
         <v>220</v>
       </c>
-      <c r="AV4" s="35">
+      <c r="AV4" s="13">
         <v>230</v>
       </c>
-      <c r="AW4" s="35">
+      <c r="AW4" s="13">
         <v>211</v>
       </c>
-      <c r="AX4" s="35">
+      <c r="AX4" s="13">
         <v>230</v>
       </c>
-      <c r="AY4" s="35">
+      <c r="AY4" s="13">
         <v>240</v>
       </c>
-      <c r="AZ4" s="35">
+      <c r="AZ4" s="13">
         <v>221</v>
       </c>
-      <c r="BA4" s="35">
+      <c r="BA4" s="13">
         <v>240</v>
       </c>
-      <c r="BB4" s="35">
+      <c r="BB4" s="13">
         <v>250</v>
       </c>
-      <c r="BC4" s="35">
+      <c r="BC4" s="13">
         <v>231</v>
       </c>
-      <c r="BD4" s="35">
+      <c r="BD4" s="13">
         <v>250</v>
       </c>
-      <c r="BE4" s="35">
+      <c r="BE4" s="13">
         <v>260</v>
       </c>
-      <c r="BF4" s="35">
+      <c r="BF4" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4069,112 +4075,112 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12">
         <v>110</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AG5" s="12">
         <v>118</v>
       </c>
-      <c r="AH5" s="33">
+      <c r="AH5" s="12">
         <v>3</v>
       </c>
-      <c r="AI5" s="33">
+      <c r="AI5" s="12">
         <v>118</v>
       </c>
-      <c r="AJ5" s="33">
+      <c r="AJ5" s="12">
         <v>100</v>
       </c>
-      <c r="AK5" s="33">
+      <c r="AK5" s="12">
         <v>111</v>
       </c>
-      <c r="AL5" s="35">
+      <c r="AL5" s="13">
         <v>100</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AM5" s="13">
         <v>200</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AN5" s="13">
         <v>119</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AO5" s="13">
         <v>200</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AP5" s="13">
         <v>210</v>
       </c>
-      <c r="AQ5" s="35">
+      <c r="AQ5" s="13">
         <v>101</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AR5" s="13">
         <v>210</v>
       </c>
-      <c r="AS5" s="35">
+      <c r="AS5" s="13">
         <v>220</v>
       </c>
-      <c r="AT5" s="35">
+      <c r="AT5" s="13">
         <v>201</v>
       </c>
-      <c r="AU5" s="35">
+      <c r="AU5" s="13">
         <v>220</v>
       </c>
-      <c r="AV5" s="35">
+      <c r="AV5" s="13">
         <v>230</v>
       </c>
-      <c r="AW5" s="35">
+      <c r="AW5" s="13">
         <v>211</v>
       </c>
-      <c r="AX5" s="35">
+      <c r="AX5" s="13">
         <v>230</v>
       </c>
-      <c r="AY5" s="35">
+      <c r="AY5" s="13">
         <v>240</v>
       </c>
-      <c r="AZ5" s="35">
+      <c r="AZ5" s="13">
         <v>221</v>
       </c>
-      <c r="BA5" s="35">
+      <c r="BA5" s="13">
         <v>240</v>
       </c>
-      <c r="BB5" s="35">
+      <c r="BB5" s="13">
         <v>250</v>
       </c>
-      <c r="BC5" s="35">
+      <c r="BC5" s="13">
         <v>231</v>
       </c>
-      <c r="BD5" s="35">
+      <c r="BD5" s="13">
         <v>250</v>
       </c>
-      <c r="BE5" s="35">
+      <c r="BE5" s="13">
         <v>260</v>
       </c>
-      <c r="BF5" s="35">
+      <c r="BF5" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4191,130 +4197,130 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10">
         <v>120</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="10">
         <v>128</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="10">
         <v>3</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="10">
         <v>128</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="10">
         <v>114</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="10">
         <v>121</v>
       </c>
-      <c r="AC6" s="33">
+      <c r="AC6" s="12">
         <v>114</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AD6" s="12">
         <v>110</v>
       </c>
-      <c r="AE6" s="33">
+      <c r="AE6" s="12">
         <v>129</v>
       </c>
-      <c r="AF6" s="33">
+      <c r="AF6" s="12">
         <v>110</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AG6" s="12">
         <v>118</v>
       </c>
-      <c r="AH6" s="33">
+      <c r="AH6" s="12">
         <v>115</v>
       </c>
-      <c r="AI6" s="33">
+      <c r="AI6" s="12">
         <v>118</v>
       </c>
-      <c r="AJ6" s="33">
+      <c r="AJ6" s="12">
         <v>100</v>
       </c>
-      <c r="AK6" s="33">
+      <c r="AK6" s="12">
         <v>111</v>
       </c>
-      <c r="AL6" s="35">
+      <c r="AL6" s="13">
         <v>100</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AM6" s="13">
         <v>200</v>
       </c>
-      <c r="AN6" s="35">
+      <c r="AN6" s="13">
         <v>119</v>
       </c>
-      <c r="AO6" s="35">
+      <c r="AO6" s="13">
         <v>200</v>
       </c>
-      <c r="AP6" s="35">
+      <c r="AP6" s="13">
         <v>210</v>
       </c>
-      <c r="AQ6" s="35">
+      <c r="AQ6" s="13">
         <v>101</v>
       </c>
-      <c r="AR6" s="35">
+      <c r="AR6" s="13">
         <v>210</v>
       </c>
-      <c r="AS6" s="35">
+      <c r="AS6" s="13">
         <v>220</v>
       </c>
-      <c r="AT6" s="35">
+      <c r="AT6" s="13">
         <v>201</v>
       </c>
-      <c r="AU6" s="35">
+      <c r="AU6" s="13">
         <v>220</v>
       </c>
-      <c r="AV6" s="35">
+      <c r="AV6" s="13">
         <v>230</v>
       </c>
-      <c r="AW6" s="35">
+      <c r="AW6" s="13">
         <v>211</v>
       </c>
-      <c r="AX6" s="35">
+      <c r="AX6" s="13">
         <v>230</v>
       </c>
-      <c r="AY6" s="35">
+      <c r="AY6" s="13">
         <v>240</v>
       </c>
-      <c r="AZ6" s="35">
+      <c r="AZ6" s="13">
         <v>221</v>
       </c>
-      <c r="BA6" s="35">
+      <c r="BA6" s="13">
         <v>240</v>
       </c>
-      <c r="BB6" s="35">
+      <c r="BB6" s="13">
         <v>250</v>
       </c>
-      <c r="BC6" s="35">
+      <c r="BC6" s="13">
         <v>231</v>
       </c>
-      <c r="BD6" s="35">
+      <c r="BD6" s="13">
         <v>250</v>
       </c>
-      <c r="BE6" s="35">
+      <c r="BE6" s="13">
         <v>260</v>
       </c>
-      <c r="BF6" s="35">
+      <c r="BF6" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4331,148 +4337,148 @@
       <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11">
         <v>130</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="11">
         <v>138</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="11">
         <v>3</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="11">
         <v>138</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="11">
         <v>124</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="11">
         <v>131</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="10">
         <v>124</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="10">
         <v>120</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="10">
         <v>139</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="10">
         <v>120</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="10">
         <v>128</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="10">
         <v>125</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="10">
         <v>128</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="10">
         <v>114</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="10">
         <v>121</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="12">
         <v>114</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="12">
         <v>110</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="12">
         <v>129</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="12">
         <v>110</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="12">
         <v>118</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="12">
         <v>115</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="12">
         <v>118</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="12">
         <v>100</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AK7" s="12">
         <v>111</v>
       </c>
-      <c r="AL7" s="35">
+      <c r="AL7" s="13">
         <v>100</v>
       </c>
-      <c r="AM7" s="35">
+      <c r="AM7" s="13">
         <v>200</v>
       </c>
-      <c r="AN7" s="35">
+      <c r="AN7" s="13">
         <v>119</v>
       </c>
-      <c r="AO7" s="35">
+      <c r="AO7" s="13">
         <v>200</v>
       </c>
-      <c r="AP7" s="35">
+      <c r="AP7" s="13">
         <v>210</v>
       </c>
-      <c r="AQ7" s="35">
+      <c r="AQ7" s="13">
         <v>101</v>
       </c>
-      <c r="AR7" s="35">
+      <c r="AR7" s="13">
         <v>210</v>
       </c>
-      <c r="AS7" s="35">
+      <c r="AS7" s="13">
         <v>220</v>
       </c>
-      <c r="AT7" s="35">
+      <c r="AT7" s="13">
         <v>201</v>
       </c>
-      <c r="AU7" s="35">
+      <c r="AU7" s="13">
         <v>220</v>
       </c>
-      <c r="AV7" s="35">
+      <c r="AV7" s="13">
         <v>230</v>
       </c>
-      <c r="AW7" s="35">
+      <c r="AW7" s="13">
         <v>211</v>
       </c>
-      <c r="AX7" s="35">
+      <c r="AX7" s="13">
         <v>230</v>
       </c>
-      <c r="AY7" s="35">
+      <c r="AY7" s="13">
         <v>240</v>
       </c>
-      <c r="AZ7" s="35">
+      <c r="AZ7" s="13">
         <v>221</v>
       </c>
-      <c r="BA7" s="35">
+      <c r="BA7" s="13">
         <v>240</v>
       </c>
-      <c r="BB7" s="35">
+      <c r="BB7" s="13">
         <v>250</v>
       </c>
-      <c r="BC7" s="35">
+      <c r="BC7" s="13">
         <v>231</v>
       </c>
-      <c r="BD7" s="35">
+      <c r="BD7" s="13">
         <v>250</v>
       </c>
-      <c r="BE7" s="35">
+      <c r="BE7" s="13">
         <v>260</v>
       </c>
-      <c r="BF7" s="35">
+      <c r="BF7" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4489,166 +4495,166 @@
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="14">
         <v>140</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="14">
         <v>144</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="14">
         <v>144</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="14">
         <v>134</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="14">
         <v>141</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="11">
         <v>134</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="11">
         <v>130</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="11">
         <v>145</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="11">
         <v>130</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="11">
         <v>138</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="11">
         <v>135</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="11">
         <v>138</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="11">
         <v>124</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="11">
         <v>131</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="10">
         <v>124</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="10">
         <v>120</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="10">
         <v>139</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="10">
         <v>120</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="10">
         <v>128</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="10">
         <v>125</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="10">
         <v>128</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="10">
         <v>114</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="10">
         <v>121</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="12">
         <v>114</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="12">
         <v>110</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="12">
         <v>129</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF8" s="12">
         <v>110</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AG8" s="12">
         <v>118</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="12">
         <v>115</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AI8" s="12">
         <v>118</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AJ8" s="12">
         <v>100</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AK8" s="12">
         <v>111</v>
       </c>
-      <c r="AL8" s="35">
+      <c r="AL8" s="13">
         <v>100</v>
       </c>
-      <c r="AM8" s="35">
+      <c r="AM8" s="13">
         <v>200</v>
       </c>
-      <c r="AN8" s="35">
+      <c r="AN8" s="13">
         <v>119</v>
       </c>
-      <c r="AO8" s="35">
+      <c r="AO8" s="13">
         <v>200</v>
       </c>
-      <c r="AP8" s="35">
+      <c r="AP8" s="13">
         <v>210</v>
       </c>
-      <c r="AQ8" s="35">
+      <c r="AQ8" s="13">
         <v>101</v>
       </c>
-      <c r="AR8" s="35">
+      <c r="AR8" s="13">
         <v>210</v>
       </c>
-      <c r="AS8" s="35">
+      <c r="AS8" s="13">
         <v>220</v>
       </c>
-      <c r="AT8" s="35">
+      <c r="AT8" s="13">
         <v>201</v>
       </c>
-      <c r="AU8" s="35">
+      <c r="AU8" s="13">
         <v>220</v>
       </c>
-      <c r="AV8" s="35">
+      <c r="AV8" s="13">
         <v>230</v>
       </c>
-      <c r="AW8" s="35">
+      <c r="AW8" s="13">
         <v>211</v>
       </c>
-      <c r="AX8" s="35">
+      <c r="AX8" s="13">
         <v>230</v>
       </c>
-      <c r="AY8" s="35">
+      <c r="AY8" s="13">
         <v>240</v>
       </c>
-      <c r="AZ8" s="35">
+      <c r="AZ8" s="13">
         <v>221</v>
       </c>
-      <c r="BA8" s="35">
+      <c r="BA8" s="13">
         <v>240</v>
       </c>
-      <c r="BB8" s="35">
+      <c r="BB8" s="13">
         <v>250</v>
       </c>
-      <c r="BC8" s="35">
+      <c r="BC8" s="13">
         <v>231</v>
       </c>
-      <c r="BD8" s="35">
+      <c r="BD8" s="13">
         <v>250</v>
       </c>
-      <c r="BE8" s="35">
+      <c r="BE8" s="13">
         <v>260</v>
       </c>
-      <c r="BF8" s="35">
+      <c r="BF8" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4665,148 +4671,148 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="14">
         <v>150</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="14">
         <v>154</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="14">
         <v>3</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="14">
         <v>154</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="14">
         <v>124</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="14">
         <v>151</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="29">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10">
         <v>124</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="10">
         <v>120</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="10">
         <v>155</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="10">
         <v>120</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="10">
         <v>128</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="10">
         <v>125</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="10">
         <v>128</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="10">
         <v>114</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="10">
         <v>121</v>
       </c>
-      <c r="AC9" s="33">
+      <c r="AC9" s="12">
         <v>114</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AD9" s="12">
         <v>110</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="12">
         <v>129</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AF9" s="12">
         <v>110</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AG9" s="12">
         <v>118</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AH9" s="12">
         <v>115</v>
       </c>
-      <c r="AI9" s="33">
+      <c r="AI9" s="12">
         <v>118</v>
       </c>
-      <c r="AJ9" s="33">
+      <c r="AJ9" s="12">
         <v>100</v>
       </c>
-      <c r="AK9" s="33">
+      <c r="AK9" s="12">
         <v>111</v>
       </c>
-      <c r="AL9" s="35">
+      <c r="AL9" s="13">
         <v>100</v>
       </c>
-      <c r="AM9" s="35">
+      <c r="AM9" s="13">
         <v>200</v>
       </c>
-      <c r="AN9" s="35">
+      <c r="AN9" s="13">
         <v>119</v>
       </c>
-      <c r="AO9" s="35">
+      <c r="AO9" s="13">
         <v>200</v>
       </c>
-      <c r="AP9" s="35">
+      <c r="AP9" s="13">
         <v>210</v>
       </c>
-      <c r="AQ9" s="35">
+      <c r="AQ9" s="13">
         <v>101</v>
       </c>
-      <c r="AR9" s="35">
+      <c r="AR9" s="13">
         <v>210</v>
       </c>
-      <c r="AS9" s="35">
+      <c r="AS9" s="13">
         <v>220</v>
       </c>
-      <c r="AT9" s="35">
+      <c r="AT9" s="13">
         <v>201</v>
       </c>
-      <c r="AU9" s="35">
+      <c r="AU9" s="13">
         <v>220</v>
       </c>
-      <c r="AV9" s="35">
+      <c r="AV9" s="13">
         <v>230</v>
       </c>
-      <c r="AW9" s="35">
+      <c r="AW9" s="13">
         <v>211</v>
       </c>
-      <c r="AX9" s="35">
+      <c r="AX9" s="13">
         <v>230</v>
       </c>
-      <c r="AY9" s="35">
+      <c r="AY9" s="13">
         <v>240</v>
       </c>
-      <c r="AZ9" s="35">
+      <c r="AZ9" s="13">
         <v>221</v>
       </c>
-      <c r="BA9" s="35">
+      <c r="BA9" s="13">
         <v>240</v>
       </c>
-      <c r="BB9" s="35">
+      <c r="BB9" s="13">
         <v>250</v>
       </c>
-      <c r="BC9" s="35">
+      <c r="BC9" s="13">
         <v>231</v>
       </c>
-      <c r="BD9" s="35">
+      <c r="BD9" s="13">
         <v>250</v>
       </c>
-      <c r="BE9" s="35">
+      <c r="BE9" s="13">
         <v>260</v>
       </c>
-      <c r="BF9" s="35">
+      <c r="BF9" s="13">
         <v>241</v>
       </c>
     </row>
@@ -4817,10 +4823,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4829,46 +4835,46 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -5052,24 +5058,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AL1:BF1"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="E1:J1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
@@ -5083,6 +5071,24 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AL1:BF1"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5094,16 +5100,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FE945-70F7-4E8E-AF80-F13293216A78}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
@@ -5239,31 +5245,49 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -5356,7 +5380,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5372,208 +5396,224 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="AJ9" s="20" t="s">
+      <c r="J9" s="27"/>
+      <c r="AJ9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="21"/>
-      <c r="AM9" s="20" t="s">
+      <c r="AK9" s="27"/>
+      <c r="AM9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="21"/>
-      <c r="AP9" s="20" t="s">
+      <c r="AN9" s="27"/>
+      <c r="AP9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AS9" s="20" t="s">
+      <c r="AQ9" s="27"/>
+      <c r="AS9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AT9" s="21"/>
-      <c r="AV9" s="20" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AV9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AW9" s="21"/>
-      <c r="AY9" s="20" t="s">
+      <c r="AW9" s="27"/>
+      <c r="AY9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AZ9" s="21"/>
-      <c r="BB9" s="20" t="s">
+      <c r="AZ9" s="27"/>
+      <c r="BB9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="21"/>
+      <c r="BC9" s="27"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="23"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="23"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="23"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="23"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="23"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="23"/>
-      <c r="BB10" s="22"/>
-      <c r="BC10" s="23"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="29"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="29"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="29"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="29"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="29"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="29"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="29"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="AD13" s="20" t="s">
+      <c r="J13" s="27"/>
+      <c r="AD13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="21"/>
-      <c r="AG13" s="20" t="s">
+      <c r="AE13" s="27"/>
+      <c r="AG13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="21"/>
+      <c r="AH13" s="27"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="23"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="23"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="29"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="29"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="X17" s="20" t="s">
+      <c r="J17" s="27"/>
+      <c r="X17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="21"/>
-      <c r="AA17" s="20" t="s">
+      <c r="Y17" s="27"/>
+      <c r="AA17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="21"/>
-      <c r="AD17" s="20" t="s">
+      <c r="AB17" s="27"/>
+      <c r="AD17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="21"/>
+      <c r="AE17" s="27"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="23"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="23"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="23"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="29"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="29"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="29"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="35"/>
+      <c r="F20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="R22" s="24" t="s">
+      <c r="J22" s="27"/>
+      <c r="R22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="25"/>
-      <c r="U22" s="16" t="s">
+      <c r="S22" s="31"/>
+      <c r="U22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="17"/>
-      <c r="X22" s="24" t="s">
+      <c r="V22" s="35"/>
+      <c r="X22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="25"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="19"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="33"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="L26" s="16" t="s">
+      <c r="J26" s="27"/>
+      <c r="L26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="O26" s="16" t="s">
+      <c r="M26" s="35"/>
+      <c r="O26" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="17"/>
-      <c r="R26" s="16" t="s">
+      <c r="P26" s="35"/>
+      <c r="R26" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="17"/>
+      <c r="S26" s="35"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="19"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="L30" s="16" t="s">
+      <c r="J30" s="27"/>
+      <c r="L30" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="O30" s="16" t="s">
+      <c r="M30" s="35"/>
+      <c r="O30" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="17"/>
+      <c r="P30" s="35"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="37"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="U22:V23"/>
     <mergeCell ref="BB9:BC10"/>
     <mergeCell ref="X17:Y18"/>
     <mergeCell ref="AA17:AB18"/>
@@ -5586,22 +5626,6 @@
     <mergeCell ref="AS9:AT10"/>
     <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AY9:AZ10"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5CDF7-4B87-40F7-A31D-A9A493AFA42D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7767FD-83BE-446F-A864-3939F1E51BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="113">
   <si>
     <t>Office Category</t>
   </si>
@@ -318,6 +318,54 @@
   </si>
   <si>
     <t>DCS</t>
+  </si>
+  <si>
+    <t>Office Head - Verify</t>
+  </si>
+  <si>
+    <t>Office Head - Activate</t>
+  </si>
+  <si>
+    <t>Office Head - Tempory</t>
+  </si>
+  <si>
+    <t>Office Head - Not Verify</t>
+  </si>
+  <si>
+    <t>Disctrict Office Head - Tempory</t>
+  </si>
+  <si>
+    <t>Disctrict Office Head - Not Verify</t>
+  </si>
+  <si>
+    <t>Disctrict Office Head - Verify</t>
+  </si>
+  <si>
+    <t>Disctrict Office Head - Activated</t>
+  </si>
+  <si>
+    <t>Department Head - Tempory</t>
+  </si>
+  <si>
+    <t>Department Head - Not Verify</t>
+  </si>
+  <si>
+    <t>Department Head - Verify</t>
+  </si>
+  <si>
+    <t>Department Head - Activated</t>
+  </si>
+  <si>
+    <t>Ministry Head - Tempory</t>
+  </si>
+  <si>
+    <t>Ministry Head - Not Verify</t>
+  </si>
+  <si>
+    <t>Ministry Head - Verify</t>
+  </si>
+  <si>
+    <t>Ministry Head - Activated</t>
   </si>
 </sst>
 </file>
@@ -352,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -532,10 +592,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -550,20 +619,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -589,18 +661,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -726,7 +790,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -774,7 +838,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -822,7 +886,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -870,7 +934,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -918,7 +982,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -966,7 +1030,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1014,7 +1078,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1062,7 +1126,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1110,7 +1174,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1158,7 +1222,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1206,7 +1270,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1254,7 +1318,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1302,7 +1366,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1350,7 +1414,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1398,7 +1462,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1446,7 +1510,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1494,7 +1558,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -3596,190 +3660,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
-  <dimension ref="A1:BF38"/>
+  <dimension ref="A1:BF50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="23" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="20" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="16" t="s">
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="15" t="s">
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="23" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="20" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16" t="s">
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15" t="s">
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15" t="s">
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15" t="s">
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15" t="s">
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15" t="s">
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="15"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4823,10 +4887,10 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4835,46 +4899,46 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -4904,160 +4968,286 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="38">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="38">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="38">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="38">
         <v>22</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>34</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
+      <c r="A27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>46</v>
+      <c r="A28" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="39">
+        <v>31</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
+      <c r="A29" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="39">
+        <v>32</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>54</v>
+      <c r="A30" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="39">
+        <v>33</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>58</v>
+      <c r="A31" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="39">
+        <v>34</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>70</v>
+      <c r="A34" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="40">
+        <v>43</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>74</v>
+      <c r="A35" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="40">
+        <v>44</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>78</v>
+      <c r="A36" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="40">
+        <v>45</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>82</v>
+      <c r="A37" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="40">
+        <v>46</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="41">
+        <v>55</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="41">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="41">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="41">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>62</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>66</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>70</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>74</v>
+      </c>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>78</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>82</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
+      <c r="B50">
         <v>86</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AL1:BF1"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="K2:M2"/>
@@ -5071,24 +5261,6 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AL1:BF1"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5100,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FE945-70F7-4E8E-AF80-F13293216A78}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5396,224 +5568,208 @@
   <sheetData>
     <row r="8" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="9:55" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="AJ9" s="26" t="s">
+      <c r="J9" s="31"/>
+      <c r="AJ9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="27"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AK9" s="31"/>
+      <c r="AM9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AN9" s="27"/>
-      <c r="AP9" s="26" t="s">
+      <c r="AN9" s="31"/>
+      <c r="AP9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AQ9" s="27"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AQ9" s="31"/>
+      <c r="AS9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AV9" s="26" t="s">
+      <c r="AT9" s="31"/>
+      <c r="AV9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AW9" s="27"/>
-      <c r="AY9" s="26" t="s">
+      <c r="AW9" s="31"/>
+      <c r="AY9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AZ9" s="27"/>
-      <c r="BB9" s="26" t="s">
+      <c r="AZ9" s="31"/>
+      <c r="BB9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="27"/>
+      <c r="BC9" s="31"/>
     </row>
     <row r="10" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="29"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="29"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="29"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="29"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="29"/>
-      <c r="AY10" s="28"/>
-      <c r="AZ10" s="29"/>
-      <c r="BB10" s="28"/>
-      <c r="BC10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="33"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="33"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="33"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33"/>
     </row>
     <row r="12" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="9:55" x14ac:dyDescent="0.25">
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="AD13" s="26" t="s">
+      <c r="J13" s="31"/>
+      <c r="AD13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="27"/>
-      <c r="AG13" s="26" t="s">
+      <c r="AE13" s="31"/>
+      <c r="AG13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="27"/>
+      <c r="AH13" s="31"/>
     </row>
     <row r="14" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="29"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="29"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="33"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
     </row>
     <row r="16" spans="9:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="X17" s="26" t="s">
+      <c r="J17" s="31"/>
+      <c r="X17" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="27"/>
-      <c r="AA17" s="26" t="s">
+      <c r="Y17" s="31"/>
+      <c r="AA17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AB17" s="27"/>
-      <c r="AD17" s="26" t="s">
+      <c r="AB17" s="31"/>
+      <c r="AD17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="27"/>
+      <c r="AE17" s="31"/>
     </row>
     <row r="18" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="29"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="29"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="33"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="33"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="33"/>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="F20" s="34" t="s">
+      <c r="C20" s="27"/>
+      <c r="F20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="R22" s="30" t="s">
+      <c r="J22" s="31"/>
+      <c r="R22" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="S22" s="31"/>
-      <c r="U22" s="34" t="s">
+      <c r="S22" s="35"/>
+      <c r="U22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="35"/>
-      <c r="X22" s="30" t="s">
+      <c r="V22" s="27"/>
+      <c r="X22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Y22" s="31"/>
+      <c r="Y22" s="35"/>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="33"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="37"/>
     </row>
     <row r="25" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="L26" s="34" t="s">
+      <c r="J26" s="31"/>
+      <c r="L26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="O26" s="34" t="s">
+      <c r="M26" s="27"/>
+      <c r="O26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="R26" s="34" t="s">
+      <c r="P26" s="27"/>
+      <c r="R26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="27"/>
     </row>
     <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="29"/>
     </row>
     <row r="29" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="L30" s="34" t="s">
+      <c r="J30" s="31"/>
+      <c r="L30" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="35"/>
-      <c r="O30" s="34" t="s">
+      <c r="M30" s="27"/>
+      <c r="O30" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P30" s="35"/>
+      <c r="P30" s="27"/>
     </row>
     <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="X22:Y23"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L30:M31"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="R26:S27"/>
-    <mergeCell ref="R22:S23"/>
-    <mergeCell ref="U22:V23"/>
     <mergeCell ref="BB9:BC10"/>
     <mergeCell ref="X17:Y18"/>
     <mergeCell ref="AA17:AB18"/>
@@ -5626,6 +5782,22 @@
     <mergeCell ref="AS9:AT10"/>
     <mergeCell ref="AV9:AW10"/>
     <mergeCell ref="AY9:AZ10"/>
+    <mergeCell ref="X22:Y23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L30:M31"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/Status/Importants(AutoRecovered).xlsx
+++ b/Status/Importants(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\opm\Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7767FD-83BE-446F-A864-3939F1E51BD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6C605-F74E-4FB3-AE81-4D7B79FDFFE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{EA588CC7-F7CD-441A-A2DF-E8EE0DE5ABCC}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="141">
   <si>
     <t>Office Category</t>
   </si>
@@ -366,6 +366,90 @@
   </si>
   <si>
     <t>Ministry Head - Activated</t>
+  </si>
+  <si>
+    <t>CS Check Officer - Tempory</t>
+  </si>
+  <si>
+    <t>CS Check Officer - Not Verify</t>
+  </si>
+  <si>
+    <t>CS Check Officer - Verify</t>
+  </si>
+  <si>
+    <t>CS Check Officer - Activated</t>
+  </si>
+  <si>
+    <t>AO - Tempory</t>
+  </si>
+  <si>
+    <t>AO - Not Verify</t>
+  </si>
+  <si>
+    <t>AO - Verify</t>
+  </si>
+  <si>
+    <t>AO - Activated</t>
+  </si>
+  <si>
+    <t>ACS_P - Tempory</t>
+  </si>
+  <si>
+    <t>ACS_P - Not Verify</t>
+  </si>
+  <si>
+    <t>ACS_P - Verify</t>
+  </si>
+  <si>
+    <t>ACS_P - Activated</t>
+  </si>
+  <si>
+    <t>DCS_P - Tempory</t>
+  </si>
+  <si>
+    <t>DCS_P - Not Verify</t>
+  </si>
+  <si>
+    <t>DCS_P - Verify</t>
+  </si>
+  <si>
+    <t>DCS_P - Activated</t>
+  </si>
+  <si>
+    <t>CS - Tempory</t>
+  </si>
+  <si>
+    <t>CS - Not Verify</t>
+  </si>
+  <si>
+    <t>CS - Verify</t>
+  </si>
+  <si>
+    <t>CS - Activated</t>
+  </si>
+  <si>
+    <t>ACC_1 - Tempory</t>
+  </si>
+  <si>
+    <t>ACC_2 - Tempory</t>
+  </si>
+  <si>
+    <t>ACC_1 - Not Verify</t>
+  </si>
+  <si>
+    <t>ACC_2 - Not Verify</t>
+  </si>
+  <si>
+    <t>ACC_1 - Verify</t>
+  </si>
+  <si>
+    <t>ACC_2  - Verify</t>
+  </si>
+  <si>
+    <t>ACC_1 - Activated</t>
+  </si>
+  <si>
+    <t>ACC_2 - Activated</t>
   </si>
 </sst>
 </file>
@@ -400,7 +484,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +535,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,6 +791,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1270,7 +1403,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1318,7 +1451,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1366,7 +1499,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1414,7 +1547,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1462,7 +1595,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1510,7 +1643,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -1558,7 +1691,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="116417" cy="116417"/>
@@ -3660,10 +3793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81067F39-39BC-427C-B7A8-196E65E42EEC}">
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,67 +5299,256 @@
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="42">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="42">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="42">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="42">
         <v>62</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="43">
+        <v>63</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="43">
+        <v>64</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="43">
+        <v>65</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="43">
         <v>66</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="44">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="44">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="44">
+        <v>69</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="44">
         <v>70</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="45">
+        <v>71</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="45">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="45">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="45">
         <v>74</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="46">
+        <v>75</v>
+      </c>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="46">
+        <v>76</v>
+      </c>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="46">
+        <v>77</v>
+      </c>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="46">
         <v>78</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="47">
+        <v>79</v>
+      </c>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="47">
+        <v>80</v>
+      </c>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="47">
+        <v>81</v>
+      </c>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="47">
         <v>82</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="48">
+        <v>83</v>
+      </c>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="48">
+        <v>84</v>
+      </c>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="48">
+        <v>85</v>
+      </c>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="48">
         <v>86</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C71" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
